--- a/biology/Histoire de la zoologie et de la botanique/Kurt_Krause/Kurt_Krause.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kurt_Krause/Kurt_Krause.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kurt Krause, né en 1883 à Potsdam et mort en 1963 à Berlin, est un botaniste allemand.
-Longtemps en poste au Jardin botanique de Berlin où il rejoint Adolf Engler en 1905, il commence à s'intéresser à la flore du Caucase après un voyage effectué en 1912. Il devient professeur de botanique, puis dirige le département de botanique de l'Institut supérieur d'agronomie de Turquie (Yüksek Ziraat Enstitüsü) à Ankara, constitue d'importantes collections de plantes (5 600) en Anatolie, consacre une trentaine d'articles à la flore turque et fonde l'Herbarium Turcicum[1].
+Longtemps en poste au Jardin botanique de Berlin où il rejoint Adolf Engler en 1905, il commence à s'intéresser à la flore du Caucase après un voyage effectué en 1912. Il devient professeur de botanique, puis dirige le département de botanique de l'Institut supérieur d'agronomie de Turquie (Yüksek Ziraat Enstitüsü) à Ankara, constitue d'importantes collections de plantes (5 600) en Anatolie, consacre une trentaine d'articles à la flore turque et fonde l'Herbarium Turcicum.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux taxons lui rendent hommage, tels que Aristolochia krausei (sv), Tulipa krauseana ou Verbascum krauseanum (sv).
 </t>
